--- a/data/trans_orig/P57B6_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>163405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141448</v>
+        <v>138447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189331</v>
+        <v>187539</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3282513617450554</v>
+        <v>0.3282513617450555</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2841442979847362</v>
+        <v>0.2781156016242763</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3803306778680244</v>
+        <v>0.3767326261994511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -762,19 +762,19 @@
         <v>146807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127099</v>
+        <v>127157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168505</v>
+        <v>170448</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2361668883822027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2044625640651121</v>
+        <v>0.204557137723108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2710726648208399</v>
+        <v>0.2741976827224696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -783,19 +783,19 @@
         <v>310212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279751</v>
+        <v>279886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>340672</v>
+        <v>343514</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2771164745043005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2499051055302103</v>
+        <v>0.2500259550349229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3043272909935104</v>
+        <v>0.3068658255080601</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>213213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188759</v>
+        <v>188851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238029</v>
+        <v>238313</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4283066923382386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3791824322990937</v>
+        <v>0.3793668476335109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4781565075816255</v>
+        <v>0.4787279303753177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>360</v>
@@ -833,19 +833,19 @@
         <v>252236</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228452</v>
+        <v>232560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>274393</v>
+        <v>275631</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4057701383671755</v>
+        <v>0.4057701383671753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3675084320279134</v>
+        <v>0.3741172652914763</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4414131800080993</v>
+        <v>0.4434058885838393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>559</v>
@@ -854,19 +854,19 @@
         <v>465449</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>427104</v>
+        <v>430705</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>495601</v>
+        <v>494368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4157920511178395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3815377958168834</v>
+        <v>0.3847544140392609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4427266489454921</v>
+        <v>0.4416257350071025</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>94831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78005</v>
+        <v>77562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114072</v>
+        <v>114510</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1904975736733285</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.156698223356832</v>
+        <v>0.1558075564043645</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2291503679577142</v>
+        <v>0.2300302232279391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -904,19 +904,19 @@
         <v>180510</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159173</v>
+        <v>159096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>201553</v>
+        <v>200798</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.290384787793388</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.256060206377293</v>
+        <v>0.2559365321255763</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3242367716267078</v>
+        <v>0.3230220536153595</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>356</v>
@@ -925,19 +925,19 @@
         <v>275341</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>248533</v>
+        <v>249294</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>302135</v>
+        <v>303130</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2459653549864251</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2220179984509874</v>
+        <v>0.2226976388745638</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2699010393544959</v>
+        <v>0.270789895319835</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>26356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17533</v>
+        <v>17408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38456</v>
+        <v>38505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05294437224337749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03522041128906703</v>
+        <v>0.03497018657692757</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07725055676713691</v>
+        <v>0.0773488043275731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -975,19 +975,19 @@
         <v>42070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33842</v>
+        <v>31955</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53627</v>
+        <v>53207</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06767818545723381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05444063233870255</v>
+        <v>0.05140634698849294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08626922945937021</v>
+        <v>0.08559309871121734</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -996,19 +996,19 @@
         <v>68426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54703</v>
+        <v>55318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84279</v>
+        <v>84308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06112611939143489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04886671040370975</v>
+        <v>0.04941649199577922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07528762046742986</v>
+        <v>0.07531329314472013</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>406006</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>372996</v>
+        <v>373487</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>444302</v>
+        <v>439151</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4234496008939476</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3890207569178367</v>
+        <v>0.3895328161116604</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4633906515076742</v>
+        <v>0.4580176448516488</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>442</v>
@@ -1121,19 +1121,19 @@
         <v>338741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>310649</v>
+        <v>311740</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>366086</v>
+        <v>366710</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3049466305815347</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2796569435992871</v>
+        <v>0.2806396883418356</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3295638921767621</v>
+        <v>0.3301250485575904</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>785</v>
@@ -1142,19 +1142,19 @@
         <v>744748</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>703064</v>
+        <v>703159</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>790622</v>
+        <v>789443</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3598460982347936</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3397054568793891</v>
+        <v>0.3397514443607814</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3820116998485619</v>
+        <v>0.3814421922434939</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>417799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>381866</v>
+        <v>387969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>448820</v>
+        <v>451050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4357484333965677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3982724343664154</v>
+        <v>0.4046368040123191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4681026465540696</v>
+        <v>0.4704284144515934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>778</v>
@@ -1192,19 +1192,19 @@
         <v>522632</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>494115</v>
+        <v>493408</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>551224</v>
+        <v>550261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.470492031118018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4448193312960654</v>
+        <v>0.4441835744176133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4962315990735678</v>
+        <v>0.4953643581155041</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1199</v>
@@ -1213,19 +1213,19 @@
         <v>940431</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>896856</v>
+        <v>894546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>988410</v>
+        <v>984369</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4543961896868871</v>
+        <v>0.4543961896868872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4333416139649902</v>
+        <v>0.432225359629954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4775783827939887</v>
+        <v>0.4756261035421508</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>122534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102261</v>
+        <v>103295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145197</v>
+        <v>147897</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1277979570679577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.106654611762392</v>
+        <v>0.1077332305968853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1514345587202729</v>
+        <v>0.1542513145719593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>335</v>
@@ -1263,19 +1263,19 @@
         <v>219702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194700</v>
+        <v>196884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241898</v>
+        <v>242735</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1977837864461866</v>
+        <v>0.1977837864461865</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1752761185437802</v>
+        <v>0.1772420554310615</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2177653439175677</v>
+        <v>0.2185187791928238</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>465</v>
@@ -1284,19 +1284,19 @@
         <v>342236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>311510</v>
+        <v>314142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371944</v>
+        <v>374191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1653610989303606</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1505151154116786</v>
+        <v>0.1517869329308305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1797153449425215</v>
+        <v>0.1808011716295825</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>12468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6945</v>
+        <v>6764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20211</v>
+        <v>20569</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01300400864152705</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007243719278050376</v>
+        <v>0.007054555885714828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02107932973679967</v>
+        <v>0.02145309816779629</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -1334,19 +1334,19 @@
         <v>29745</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21387</v>
+        <v>21287</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39734</v>
+        <v>39251</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02677755185426073</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.019253226897532</v>
+        <v>0.01916319638161926</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03576987483519599</v>
+        <v>0.03533540877248127</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -1355,19 +1355,19 @@
         <v>42213</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31749</v>
+        <v>32139</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53137</v>
+        <v>53662</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02039661314795869</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01534032805481827</v>
+        <v>0.01552883997767648</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02567478007718171</v>
+        <v>0.02592821154717851</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>468416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433079</v>
+        <v>427497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505531</v>
+        <v>502752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4502238312719048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4162589031553184</v>
+        <v>0.4108937795045671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.485897167440564</v>
+        <v>0.4832256636521736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -1480,19 +1480,19 @@
         <v>363125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332849</v>
+        <v>336374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>392142</v>
+        <v>394680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3473912584287139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3184269971661612</v>
+        <v>0.3217991042817532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3751511296630242</v>
+        <v>0.3775783128598859</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>896</v>
@@ -1501,19 +1501,19 @@
         <v>831542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>788955</v>
+        <v>788340</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>878012</v>
+        <v>873832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3986871643128692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3782687247066306</v>
+        <v>0.3779736373993613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4209677118424895</v>
+        <v>0.4189634835665101</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>452686</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>416586</v>
+        <v>421797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>486566</v>
+        <v>492248</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4351038711255155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4004065314311992</v>
+        <v>0.405414801128419</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4676685653511582</v>
+        <v>0.4731296695717623</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>760</v>
@@ -1551,19 +1551,19 @@
         <v>501189</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>471212</v>
+        <v>472565</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>527918</v>
+        <v>529482</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4794724854877578</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4507948289702555</v>
+        <v>0.4520885358797204</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5050434896508373</v>
+        <v>0.5065398506982328</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1233</v>
@@ -1572,19 +1572,19 @@
         <v>953874</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>907993</v>
+        <v>911480</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>996555</v>
+        <v>997370</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4573401182464313</v>
+        <v>0.4573401182464312</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4353420755496792</v>
+        <v>0.4370139917356726</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4778038227592127</v>
+        <v>0.4781945271563687</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>100591</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82217</v>
+        <v>81616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122466</v>
+        <v>123816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09668439762946922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07902363516012781</v>
+        <v>0.07844661466451791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1177097680103461</v>
+        <v>0.1190070900262698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>250</v>
@@ -1622,19 +1622,19 @@
         <v>158169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137658</v>
+        <v>140594</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178384</v>
+        <v>178213</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1513155712314663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1316933386141055</v>
+        <v>0.1345017107194946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1706548147458445</v>
+        <v>0.1704908478069349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>357</v>
@@ -1643,19 +1643,19 @@
         <v>258760</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>230695</v>
+        <v>229390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>285378</v>
+        <v>288581</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1240639381939239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1106077539775133</v>
+        <v>0.1099820986338974</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1368258911095331</v>
+        <v>0.1383619159974259</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>18715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10524</v>
+        <v>10636</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31311</v>
+        <v>31354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01798789997311055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01011514155196915</v>
+        <v>0.01022333321421267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0300946321042835</v>
+        <v>0.03013608903510681</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1693,19 +1693,19 @@
         <v>22809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15592</v>
+        <v>15705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31283</v>
+        <v>32066</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02182068485206193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01491677493345579</v>
+        <v>0.01502437544688292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02992726342781749</v>
+        <v>0.03067632738789624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -1714,19 +1714,19 @@
         <v>41524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31137</v>
+        <v>30692</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56323</v>
+        <v>57305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01990877924677568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01492890856179777</v>
+        <v>0.01471566686629503</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02700441966390494</v>
+        <v>0.02747535582108227</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>414911</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>378743</v>
+        <v>379917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>450304</v>
+        <v>453672</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4257920857836978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3886749061993834</v>
+        <v>0.3898796204634027</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4621124802759867</v>
+        <v>0.4655690876021346</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>424</v>
@@ -1839,19 +1839,19 @@
         <v>334482</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>306782</v>
+        <v>307590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>361699</v>
+        <v>364798</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3686678115017077</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3381371118160292</v>
+        <v>0.3390278836873379</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3986669017729675</v>
+        <v>0.4020827255524631</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>786</v>
@@ -1860,19 +1860,19 @@
         <v>749393</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>705033</v>
+        <v>710034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>792314</v>
+        <v>797189</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3982495844933969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3746754706327248</v>
+        <v>0.3773329061106357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4210592455983083</v>
+        <v>0.4236498299473438</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>387908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>355840</v>
+        <v>355244</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>417618</v>
+        <v>423728</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3980803251430414</v>
+        <v>0.3980803251430413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3651720549766982</v>
+        <v>0.3645602531320309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4285694603837659</v>
+        <v>0.4348395249557458</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>499</v>
@@ -1910,19 +1910,19 @@
         <v>329110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>304855</v>
+        <v>304083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>354813</v>
+        <v>355283</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3627470519857028</v>
+        <v>0.3627470519857027</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3360131450209215</v>
+        <v>0.3351621913679653</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3910771853993001</v>
+        <v>0.3915956895439081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>890</v>
@@ -1931,19 +1931,19 @@
         <v>717018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>673907</v>
+        <v>675115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>759245</v>
+        <v>760692</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3810443674217655</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3581341742482056</v>
+        <v>0.3587758584827604</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4034851539502227</v>
+        <v>0.4042539536743133</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>152829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>130072</v>
+        <v>128762</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>175832</v>
+        <v>175464</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1568369686883113</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1334828204974698</v>
+        <v>0.1321390524888447</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1804435007118932</v>
+        <v>0.1800651043623138</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>352</v>
@@ -1981,19 +1981,19 @@
         <v>210913</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188315</v>
+        <v>190630</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>236675</v>
+        <v>231232</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2324701614440259</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2075622064588935</v>
+        <v>0.210113365470686</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2608647392939825</v>
+        <v>0.2548659569901782</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>528</v>
@@ -2002,19 +2002,19 @@
         <v>363743</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>335587</v>
+        <v>332022</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>394451</v>
+        <v>390450</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1933035555333473</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1783410250544919</v>
+        <v>0.1764465161516991</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2096228486759446</v>
+        <v>0.2074965156107089</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>18798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10090</v>
+        <v>10256</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31115</v>
+        <v>30465</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01929062038494957</v>
+        <v>0.01929062038494956</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01035431709161364</v>
+        <v>0.01052530045124874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03193127193824801</v>
+        <v>0.0312636363345312</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2052,19 +2052,19 @@
         <v>32766</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24029</v>
+        <v>23694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46179</v>
+        <v>43478</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03611497506856361</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02648499350945614</v>
+        <v>0.0261158209497968</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05089824628479355</v>
+        <v>0.04792178993502084</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -2073,19 +2073,19 @@
         <v>51564</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38377</v>
+        <v>38887</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68325</v>
+        <v>68727</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02740249255149041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02039467009171383</v>
+        <v>0.02066584067016245</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03630996819674163</v>
+        <v>0.03652377765560518</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1452740</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1387833</v>
+        <v>1389473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1514843</v>
+        <v>1524593</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4184801121750402</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3997827163676328</v>
+        <v>0.4002552992107029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4363695590230071</v>
+        <v>0.4391781656912109</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1508</v>
@@ -2198,19 +2198,19 @@
         <v>1183155</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1127459</v>
+        <v>1133021</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1237142</v>
+        <v>1235168</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3210726031033168</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3059584605924567</v>
+        <v>0.3074678894363267</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3357230162905099</v>
+        <v>0.3351873128025372</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2775</v>
@@ -2219,19 +2219,19 @@
         <v>2635894</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2556146</v>
+        <v>2550552</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2722989</v>
+        <v>2723739</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3683230995105424</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3571795517254343</v>
+        <v>0.3563978846213625</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3804931203064935</v>
+        <v>0.380597954623892</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1471606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1409006</v>
+        <v>1400506</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1531850</v>
+        <v>1533345</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4239146196014155</v>
+        <v>0.4239146196014154</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4058820597342648</v>
+        <v>0.4034335060106938</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4412688992326451</v>
+        <v>0.441699402349771</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2397</v>
@@ -2269,19 +2269,19 @@
         <v>1605167</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1548005</v>
+        <v>1555443</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1661207</v>
+        <v>1655701</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4355940401770629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4200819706403418</v>
+        <v>0.4221004531120912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4508014661406289</v>
+        <v>0.4493074156164044</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3881</v>
@@ -2290,19 +2290,19 @@
         <v>3076772</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2986375</v>
+        <v>2991629</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3149156</v>
+        <v>3154170</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4299285794214473</v>
+        <v>0.4299285794214475</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4172970965569612</v>
+        <v>0.4180311446068614</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.440043015789749</v>
+        <v>0.4407436433383848</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>470785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>430740</v>
+        <v>431408</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>515321</v>
+        <v>518998</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1356154993655194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1240801437633146</v>
+        <v>0.1242726171041362</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.148444858521405</v>
+        <v>0.1495038082284637</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1197</v>
@@ -2340,19 +2340,19 @@
         <v>769295</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>727923</v>
+        <v>729793</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>813352</v>
+        <v>811106</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2087634221198333</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1975363800690337</v>
+        <v>0.1980438387307089</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2207191514537958</v>
+        <v>0.2201097550384086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1706</v>
@@ -2361,19 +2361,19 @@
         <v>1240079</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1179815</v>
+        <v>1182133</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1302117</v>
+        <v>1296202</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1732807812614802</v>
+        <v>0.1732807812614803</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1648597762393782</v>
+        <v>0.1651838056863523</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1819495077419799</v>
+        <v>0.1811230604376474</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>76337</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60074</v>
+        <v>58869</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>97238</v>
+        <v>97396</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02198976885802495</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01730493341883751</v>
+        <v>0.01695785467118209</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02801063448359521</v>
+        <v>0.02805611514513361</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>184</v>
@@ -2411,19 +2411,19 @@
         <v>127390</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>106834</v>
+        <v>110974</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>146282</v>
+        <v>147120</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03456993459978698</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02899163398433213</v>
+        <v>0.03011509969099598</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03969654110363212</v>
+        <v>0.0399239063416657</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>256</v>
@@ -2432,19 +2432,19 @@
         <v>203727</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>180245</v>
+        <v>179609</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>231126</v>
+        <v>231521</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02846753980652987</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0251862196705019</v>
+        <v>0.02509737528850357</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0322961400298705</v>
+        <v>0.03235131842179335</v>
       </c>
     </row>
     <row r="28">
